--- a/PM_reducido.xlsx
+++ b/PM_reducido.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -166,10 +166,7 @@
     <t>E5</t>
   </si>
   <si>
-    <t>E6abc</t>
-  </si>
-  <si>
-    <t>E6d</t>
+    <t>E6</t>
   </si>
   <si>
     <t>PFI</t>
@@ -660,10 +657,10 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -731,10 +728,10 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -802,10 +799,10 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -873,10 +870,10 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -944,10 +941,10 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1015,10 +1012,10 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -1086,13 +1083,13 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1160,13 +1157,13 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1234,13 +1231,13 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1308,13 +1305,13 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1382,13 +1379,13 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1456,13 +1453,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1527,16 +1524,16 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1604,7 +1601,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1672,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1740,7 +1737,7 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1808,10 +1805,10 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -1879,10 +1876,10 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>10</v>
@@ -1950,13 +1947,13 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>10</v>
@@ -2024,13 +2021,13 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -2098,13 +2095,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -2169,16 +2166,16 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -2243,16 +2240,16 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -2320,10 +2317,10 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
         <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -2391,10 +2388,10 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -2462,10 +2459,10 @@
         <v>45</v>
       </c>
       <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
         <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
       </c>
       <c r="J27">
         <v>10</v>
@@ -2533,10 +2530,10 @@
         <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -2604,10 +2601,10 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
         <v>56</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -2675,10 +2672,10 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -2746,13 +2743,13 @@
         <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
         <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -2820,13 +2817,13 @@
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>10</v>
@@ -2894,13 +2891,13 @@
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
         <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>57</v>
       </c>
       <c r="J33">
         <v>10</v>
@@ -2968,13 +2965,13 @@
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>10</v>
@@ -3042,13 +3039,13 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J35">
         <v>5</v>
@@ -3116,13 +3113,13 @@
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -3187,16 +3184,16 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
         <v>51</v>
       </c>
-      <c r="E37" t="s">
-        <v>52</v>
-      </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -3264,7 +3261,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -3332,7 +3329,7 @@
         <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39">
         <v>10</v>
@@ -3400,7 +3397,7 @@
         <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>10</v>
@@ -3468,10 +3465,10 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>10</v>
@@ -3539,10 +3536,10 @@
         <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42">
         <v>10</v>
@@ -3610,13 +3607,13 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J43">
         <v>5</v>
@@ -3684,13 +3681,13 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -3758,13 +3755,13 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -3829,16 +3826,16 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -3903,16 +3900,16 @@
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -3980,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48">
         <v>-0.06</v>
@@ -4054,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49">
         <v>-0.04</v>
@@ -4128,7 +4125,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50">
         <v>-0.02</v>
@@ -4202,7 +4199,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4276,7 +4273,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52">
         <v>0.02</v>
@@ -4350,7 +4347,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53">
         <v>0.04</v>
@@ -4424,7 +4421,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54">
         <v>0.06</v>
@@ -4498,7 +4495,7 @@
         <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55">
         <v>-0.06</v>
@@ -4572,7 +4569,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56">
         <v>-0.04</v>
@@ -4646,7 +4643,7 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57">
         <v>-0.02</v>
@@ -4720,7 +4717,7 @@
         <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4794,7 +4791,7 @@
         <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59">
         <v>0.02</v>
@@ -4868,7 +4865,7 @@
         <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H60">
         <v>0.04</v>
@@ -4942,7 +4939,7 @@
         <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H61">
         <v>0.06</v>
@@ -5016,7 +5013,7 @@
         <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62">
         <v>-0.06</v>
@@ -5090,7 +5087,7 @@
         <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63">
         <v>-0.04</v>
@@ -5164,7 +5161,7 @@
         <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64">
         <v>-0.02</v>
@@ -5238,7 +5235,7 @@
         <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5312,7 +5309,7 @@
         <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66">
         <v>0.02</v>
@@ -5386,7 +5383,7 @@
         <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H67">
         <v>0.04</v>
@@ -5460,7 +5457,7 @@
         <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H68">
         <v>0.06</v>
@@ -5534,7 +5531,7 @@
         <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H69">
         <v>-0.06</v>
@@ -5608,7 +5605,7 @@
         <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H70">
         <v>-0.04</v>
@@ -5682,7 +5679,7 @@
         <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71">
         <v>-0.02</v>
@@ -5756,7 +5753,7 @@
         <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5830,7 +5827,7 @@
         <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73">
         <v>0.02</v>
@@ -5904,7 +5901,7 @@
         <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H74">
         <v>0.04</v>
@@ -5978,7 +5975,7 @@
         <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H75">
         <v>0.06</v>
@@ -6052,10 +6049,10 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H76">
         <v>-0.06</v>
@@ -6129,10 +6126,10 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H77">
         <v>-0.04</v>
@@ -6206,10 +6203,10 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H78">
         <v>-0.02</v>
@@ -6283,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -6360,10 +6357,10 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80">
         <v>0.02</v>
@@ -6437,10 +6434,10 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H81">
         <v>0.04</v>
@@ -6514,10 +6511,10 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H82">
         <v>0.06</v>
@@ -6591,7 +6588,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H83">
         <v>-0.06</v>
@@ -6665,7 +6662,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H84">
         <v>-0.04</v>
@@ -6739,7 +6736,7 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85">
         <v>-0.02</v>
@@ -6813,7 +6810,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6887,7 +6884,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H87">
         <v>0.02</v>
@@ -6961,7 +6958,7 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88">
         <v>0.04</v>
@@ -7035,7 +7032,7 @@
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H89">
         <v>0.06</v>
@@ -7109,7 +7106,7 @@
         <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H90">
         <v>-0.06</v>
@@ -7183,7 +7180,7 @@
         <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H91">
         <v>-0.04</v>
@@ -7257,7 +7254,7 @@
         <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H92">
         <v>-0.02</v>
@@ -7331,7 +7328,7 @@
         <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -7405,7 +7402,7 @@
         <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H94">
         <v>0.02</v>
@@ -7479,7 +7476,7 @@
         <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H95">
         <v>0.04</v>
@@ -7553,7 +7550,7 @@
         <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96">
         <v>0.06</v>
@@ -7627,7 +7624,7 @@
         <v>46</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H97">
         <v>-0.06</v>
@@ -7701,7 +7698,7 @@
         <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H98">
         <v>-0.04</v>
@@ -7775,7 +7772,7 @@
         <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H99">
         <v>-0.02</v>
@@ -7849,7 +7846,7 @@
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -7923,7 +7920,7 @@
         <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H101">
         <v>0.02</v>
@@ -7997,7 +7994,7 @@
         <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H102">
         <v>0.04</v>
@@ -8071,7 +8068,7 @@
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H103">
         <v>0.06</v>
@@ -8145,7 +8142,7 @@
         <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104">
         <v>-0.06</v>
@@ -8219,7 +8216,7 @@
         <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H105">
         <v>-0.04</v>
@@ -8293,7 +8290,7 @@
         <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H106">
         <v>-0.02</v>
@@ -8367,7 +8364,7 @@
         <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -8441,7 +8438,7 @@
         <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H108">
         <v>0.02</v>
@@ -8515,7 +8512,7 @@
         <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H109">
         <v>0.04</v>
@@ -8589,7 +8586,7 @@
         <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H110">
         <v>0.06</v>
@@ -8663,10 +8660,10 @@
         <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H111">
         <v>-0.06</v>
@@ -8740,10 +8737,10 @@
         <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112">
         <v>-0.04</v>
@@ -8817,10 +8814,10 @@
         <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H113">
         <v>-0.02</v>
@@ -8894,10 +8891,10 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -8971,10 +8968,10 @@
         <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H115">
         <v>0.02</v>
@@ -9048,10 +9045,10 @@
         <v>48</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H116">
         <v>0.04</v>
@@ -9125,10 +9122,10 @@
         <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H117">
         <v>0.06</v>
@@ -9202,7 +9199,7 @@
         <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H118">
         <v>-0.06</v>
@@ -9276,7 +9273,7 @@
         <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H119">
         <v>-0.04</v>
@@ -9350,7 +9347,7 @@
         <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120">
         <v>-0.02</v>
@@ -9424,7 +9421,7 @@
         <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -9498,7 +9495,7 @@
         <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H122">
         <v>0.02</v>
@@ -9572,7 +9569,7 @@
         <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H123">
         <v>0.04</v>
@@ -9646,7 +9643,7 @@
         <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H124">
         <v>0.06</v>
@@ -9720,7 +9717,7 @@
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H125">
         <v>-0.06</v>
@@ -9794,7 +9791,7 @@
         <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H126">
         <v>-0.04</v>
@@ -9868,7 +9865,7 @@
         <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H127">
         <v>-0.02</v>
@@ -9942,7 +9939,7 @@
         <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -10016,7 +10013,7 @@
         <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H129">
         <v>0.02</v>
@@ -10090,7 +10087,7 @@
         <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H130">
         <v>0.04</v>
@@ -10164,7 +10161,7 @@
         <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H131">
         <v>0.06</v>
@@ -10238,7 +10235,7 @@
         <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H132">
         <v>-0.06</v>
@@ -10312,7 +10309,7 @@
         <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H133">
         <v>-0.04</v>
@@ -10386,7 +10383,7 @@
         <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H134">
         <v>-0.02</v>
@@ -10460,7 +10457,7 @@
         <v>46</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -10534,7 +10531,7 @@
         <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136">
         <v>0.02</v>
@@ -10608,7 +10605,7 @@
         <v>46</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H137">
         <v>0.04</v>
@@ -10682,7 +10679,7 @@
         <v>46</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H138">
         <v>0.06</v>
@@ -10756,7 +10753,7 @@
         <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H139">
         <v>-0.06</v>
@@ -10830,7 +10827,7 @@
         <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H140">
         <v>-0.04</v>
@@ -10904,7 +10901,7 @@
         <v>47</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H141">
         <v>-0.02</v>
@@ -10978,7 +10975,7 @@
         <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -11052,7 +11049,7 @@
         <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H143">
         <v>0.02</v>
@@ -11126,7 +11123,7 @@
         <v>47</v>
       </c>
       <c r="F144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144">
         <v>0.04</v>
@@ -11200,7 +11197,7 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H145">
         <v>0.06</v>
@@ -11274,10 +11271,10 @@
         <v>48</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H146">
         <v>-0.06</v>
@@ -11351,10 +11348,10 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H147">
         <v>-0.04</v>
@@ -11428,10 +11425,10 @@
         <v>48</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H148">
         <v>-0.02</v>
@@ -11505,10 +11502,10 @@
         <v>48</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -11582,10 +11579,10 @@
         <v>48</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H150">
         <v>0.02</v>
@@ -11659,10 +11656,10 @@
         <v>48</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H151">
         <v>0.04</v>
@@ -11736,10 +11733,10 @@
         <v>48</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152">
         <v>0.06</v>
@@ -11813,7 +11810,7 @@
         <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H153">
         <v>-0.06</v>
@@ -11887,7 +11884,7 @@
         <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H154">
         <v>-0.04</v>
@@ -11961,7 +11958,7 @@
         <v>44</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H155">
         <v>-0.02</v>
@@ -12035,7 +12032,7 @@
         <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -12109,7 +12106,7 @@
         <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H157">
         <v>0.02</v>
@@ -12183,7 +12180,7 @@
         <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H158">
         <v>0.04</v>
@@ -12257,7 +12254,7 @@
         <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H159">
         <v>0.06</v>
@@ -12331,7 +12328,7 @@
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H160">
         <v>-0.06</v>
@@ -12405,7 +12402,7 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H161">
         <v>-0.04</v>
@@ -12479,7 +12476,7 @@
         <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H162">
         <v>-0.02</v>
@@ -12553,7 +12550,7 @@
         <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -12627,7 +12624,7 @@
         <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H164">
         <v>0.02</v>
@@ -12701,7 +12698,7 @@
         <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H165">
         <v>0.04</v>
@@ -12775,7 +12772,7 @@
         <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H166">
         <v>0.06</v>
@@ -12849,7 +12846,7 @@
         <v>46</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H167">
         <v>-0.06</v>
@@ -12923,7 +12920,7 @@
         <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H168">
         <v>-0.04</v>
@@ -12997,7 +12994,7 @@
         <v>46</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169">
         <v>-0.02</v>
@@ -13071,7 +13068,7 @@
         <v>46</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -13145,7 +13142,7 @@
         <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H171">
         <v>0.02</v>
@@ -13219,7 +13216,7 @@
         <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H172">
         <v>0.04</v>
@@ -13293,7 +13290,7 @@
         <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H173">
         <v>0.06</v>
@@ -13367,7 +13364,7 @@
         <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H174">
         <v>-0.06</v>
@@ -13441,7 +13438,7 @@
         <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H175">
         <v>-0.04</v>
@@ -13515,7 +13512,7 @@
         <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H176">
         <v>-0.02</v>
@@ -13589,7 +13586,7 @@
         <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -13663,7 +13660,7 @@
         <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H178">
         <v>0.02</v>
@@ -13737,7 +13734,7 @@
         <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H179">
         <v>0.04</v>
@@ -13811,7 +13808,7 @@
         <v>47</v>
       </c>
       <c r="F180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H180">
         <v>0.06</v>
@@ -13885,10 +13882,10 @@
         <v>48</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H181">
         <v>-0.06</v>
@@ -13962,10 +13959,10 @@
         <v>48</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H182">
         <v>-0.04</v>
@@ -14039,10 +14036,10 @@
         <v>48</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H183">
         <v>-0.02</v>
@@ -14116,10 +14113,10 @@
         <v>48</v>
       </c>
       <c r="E184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -14193,10 +14190,10 @@
         <v>48</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H185">
         <v>0.02</v>
@@ -14270,10 +14267,10 @@
         <v>48</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H186">
         <v>0.04</v>
@@ -14347,10 +14344,10 @@
         <v>48</v>
       </c>
       <c r="E187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H187">
         <v>0.06</v>
@@ -14424,7 +14421,7 @@
         <v>44</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H188">
         <v>-0.06</v>
@@ -14498,7 +14495,7 @@
         <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H189">
         <v>-0.04</v>
@@ -14572,7 +14569,7 @@
         <v>44</v>
       </c>
       <c r="F190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H190">
         <v>-0.02</v>
@@ -14646,7 +14643,7 @@
         <v>44</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -14720,7 +14717,7 @@
         <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H192">
         <v>0.02</v>
@@ -14794,7 +14791,7 @@
         <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H193">
         <v>0.04</v>
@@ -14868,7 +14865,7 @@
         <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H194">
         <v>0.06</v>
@@ -14942,7 +14939,7 @@
         <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H195">
         <v>-0.06</v>
@@ -15016,7 +15013,7 @@
         <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H196">
         <v>-0.04</v>
@@ -15090,7 +15087,7 @@
         <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H197">
         <v>-0.02</v>
@@ -15164,7 +15161,7 @@
         <v>45</v>
       </c>
       <c r="F198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -15238,7 +15235,7 @@
         <v>45</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H199">
         <v>0.02</v>
@@ -15312,7 +15309,7 @@
         <v>45</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H200">
         <v>0.04</v>
@@ -15386,7 +15383,7 @@
         <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H201">
         <v>0.06</v>
@@ -15460,7 +15457,7 @@
         <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H202">
         <v>-0.06</v>
@@ -15534,7 +15531,7 @@
         <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H203">
         <v>-0.04</v>
@@ -15608,7 +15605,7 @@
         <v>46</v>
       </c>
       <c r="F204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H204">
         <v>-0.02</v>
@@ -15682,7 +15679,7 @@
         <v>46</v>
       </c>
       <c r="F205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -15756,7 +15753,7 @@
         <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H206">
         <v>0.02</v>
@@ -15830,7 +15827,7 @@
         <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H207">
         <v>0.04</v>
@@ -15904,7 +15901,7 @@
         <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H208">
         <v>0.06</v>
@@ -15978,7 +15975,7 @@
         <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H209">
         <v>-0.06</v>
@@ -16052,7 +16049,7 @@
         <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H210">
         <v>-0.04</v>
@@ -16126,7 +16123,7 @@
         <v>47</v>
       </c>
       <c r="F211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H211">
         <v>-0.02</v>
@@ -16200,7 +16197,7 @@
         <v>47</v>
       </c>
       <c r="F212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -16274,7 +16271,7 @@
         <v>47</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H213">
         <v>0.02</v>
@@ -16348,7 +16345,7 @@
         <v>47</v>
       </c>
       <c r="F214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H214">
         <v>0.04</v>
@@ -16422,7 +16419,7 @@
         <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H215">
         <v>0.06</v>
@@ -16496,10 +16493,10 @@
         <v>48</v>
       </c>
       <c r="E216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H216">
         <v>-0.06</v>
@@ -16573,10 +16570,10 @@
         <v>48</v>
       </c>
       <c r="E217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H217">
         <v>-0.04</v>
@@ -16650,10 +16647,10 @@
         <v>48</v>
       </c>
       <c r="E218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H218">
         <v>-0.02</v>
@@ -16727,10 +16724,10 @@
         <v>48</v>
       </c>
       <c r="E219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -16804,10 +16801,10 @@
         <v>48</v>
       </c>
       <c r="E220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H220">
         <v>0.02</v>
@@ -16881,10 +16878,10 @@
         <v>48</v>
       </c>
       <c r="E221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H221">
         <v>0.04</v>
@@ -16958,10 +16955,10 @@
         <v>48</v>
       </c>
       <c r="E222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H222">
         <v>0.06</v>
@@ -17035,7 +17032,7 @@
         <v>44</v>
       </c>
       <c r="F223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H223">
         <v>-0.06</v>
@@ -17109,7 +17106,7 @@
         <v>44</v>
       </c>
       <c r="F224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H224">
         <v>-0.04</v>
@@ -17183,7 +17180,7 @@
         <v>44</v>
       </c>
       <c r="F225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H225">
         <v>-0.02</v>
@@ -17257,7 +17254,7 @@
         <v>44</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -17331,7 +17328,7 @@
         <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H227">
         <v>0.02</v>
@@ -17405,7 +17402,7 @@
         <v>44</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H228">
         <v>0.04</v>
@@ -17479,7 +17476,7 @@
         <v>44</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H229">
         <v>0.06</v>
@@ -17553,7 +17550,7 @@
         <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H230">
         <v>-0.06</v>
@@ -17627,7 +17624,7 @@
         <v>45</v>
       </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H231">
         <v>-0.04</v>
@@ -17701,7 +17698,7 @@
         <v>45</v>
       </c>
       <c r="F232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H232">
         <v>-0.02</v>
@@ -17775,7 +17772,7 @@
         <v>45</v>
       </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -17849,7 +17846,7 @@
         <v>45</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H234">
         <v>0.02</v>
@@ -17923,7 +17920,7 @@
         <v>45</v>
       </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H235">
         <v>0.04</v>
@@ -17997,7 +17994,7 @@
         <v>45</v>
       </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H236">
         <v>0.06</v>
@@ -18071,7 +18068,7 @@
         <v>46</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H237">
         <v>-0.06</v>
@@ -18145,7 +18142,7 @@
         <v>46</v>
       </c>
       <c r="F238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H238">
         <v>-0.04</v>
@@ -18219,7 +18216,7 @@
         <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H239">
         <v>-0.02</v>
@@ -18293,7 +18290,7 @@
         <v>46</v>
       </c>
       <c r="F240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -18367,7 +18364,7 @@
         <v>46</v>
       </c>
       <c r="F241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H241">
         <v>0.02</v>
@@ -18441,7 +18438,7 @@
         <v>46</v>
       </c>
       <c r="F242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H242">
         <v>0.04</v>
@@ -18515,7 +18512,7 @@
         <v>46</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H243">
         <v>0.06</v>
@@ -18589,7 +18586,7 @@
         <v>47</v>
       </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H244">
         <v>-0.06</v>
@@ -18663,7 +18660,7 @@
         <v>47</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H245">
         <v>-0.04</v>
@@ -18737,7 +18734,7 @@
         <v>47</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H246">
         <v>-0.02</v>
@@ -18811,7 +18808,7 @@
         <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -18885,7 +18882,7 @@
         <v>47</v>
       </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H248">
         <v>0.02</v>
@@ -18959,7 +18956,7 @@
         <v>47</v>
       </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H249">
         <v>0.04</v>
@@ -19033,7 +19030,7 @@
         <v>47</v>
       </c>
       <c r="F250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H250">
         <v>0.06</v>
@@ -19107,10 +19104,10 @@
         <v>48</v>
       </c>
       <c r="E251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H251">
         <v>-0.06</v>
@@ -19184,10 +19181,10 @@
         <v>48</v>
       </c>
       <c r="E252" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H252">
         <v>-0.04</v>
@@ -19261,10 +19258,10 @@
         <v>48</v>
       </c>
       <c r="E253" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H253">
         <v>-0.02</v>
@@ -19338,10 +19335,10 @@
         <v>48</v>
       </c>
       <c r="E254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -19415,10 +19412,10 @@
         <v>48</v>
       </c>
       <c r="E255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H255">
         <v>0.02</v>
@@ -19492,10 +19489,10 @@
         <v>48</v>
       </c>
       <c r="E256" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H256">
         <v>0.04</v>
@@ -19569,10 +19566,10 @@
         <v>48</v>
       </c>
       <c r="E257" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H257">
         <v>0.06</v>
@@ -19646,7 +19643,7 @@
         <v>44</v>
       </c>
       <c r="F258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H258">
         <v>-0.06</v>
@@ -19720,7 +19717,7 @@
         <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H259">
         <v>-0.04</v>
@@ -19794,7 +19791,7 @@
         <v>44</v>
       </c>
       <c r="F260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H260">
         <v>-0.02</v>
@@ -19868,7 +19865,7 @@
         <v>44</v>
       </c>
       <c r="F261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -19942,7 +19939,7 @@
         <v>44</v>
       </c>
       <c r="F262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H262">
         <v>0.02</v>
@@ -20016,7 +20013,7 @@
         <v>44</v>
       </c>
       <c r="F263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H263">
         <v>0.04</v>
@@ -20090,7 +20087,7 @@
         <v>44</v>
       </c>
       <c r="F264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H264">
         <v>0.06</v>
@@ -20164,7 +20161,7 @@
         <v>45</v>
       </c>
       <c r="F265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H265">
         <v>-0.06</v>
@@ -20238,7 +20235,7 @@
         <v>45</v>
       </c>
       <c r="F266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H266">
         <v>-0.04</v>
@@ -20312,7 +20309,7 @@
         <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H267">
         <v>-0.02</v>
@@ -20386,7 +20383,7 @@
         <v>45</v>
       </c>
       <c r="F268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -20460,7 +20457,7 @@
         <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H269">
         <v>0.02</v>
@@ -20534,7 +20531,7 @@
         <v>45</v>
       </c>
       <c r="F270" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H270">
         <v>0.04</v>
@@ -20608,7 +20605,7 @@
         <v>45</v>
       </c>
       <c r="F271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H271">
         <v>0.06</v>
@@ -20682,7 +20679,7 @@
         <v>46</v>
       </c>
       <c r="F272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H272">
         <v>-0.06</v>
@@ -20756,7 +20753,7 @@
         <v>46</v>
       </c>
       <c r="F273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H273">
         <v>-0.04</v>
@@ -20830,7 +20827,7 @@
         <v>46</v>
       </c>
       <c r="F274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H274">
         <v>-0.02</v>
@@ -20904,7 +20901,7 @@
         <v>46</v>
       </c>
       <c r="F275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -20978,7 +20975,7 @@
         <v>46</v>
       </c>
       <c r="F276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H276">
         <v>0.02</v>
@@ -21052,7 +21049,7 @@
         <v>46</v>
       </c>
       <c r="F277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H277">
         <v>0.04</v>
@@ -21126,7 +21123,7 @@
         <v>46</v>
       </c>
       <c r="F278" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H278">
         <v>0.06</v>
@@ -21200,7 +21197,7 @@
         <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H279">
         <v>-0.06</v>
@@ -21274,7 +21271,7 @@
         <v>47</v>
       </c>
       <c r="F280" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H280">
         <v>-0.04</v>
@@ -21348,7 +21345,7 @@
         <v>47</v>
       </c>
       <c r="F281" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H281">
         <v>-0.02</v>
@@ -21422,7 +21419,7 @@
         <v>47</v>
       </c>
       <c r="F282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -21496,7 +21493,7 @@
         <v>47</v>
       </c>
       <c r="F283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H283">
         <v>0.02</v>
@@ -21570,7 +21567,7 @@
         <v>47</v>
       </c>
       <c r="F284" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H284">
         <v>0.04</v>
@@ -21644,7 +21641,7 @@
         <v>47</v>
       </c>
       <c r="F285" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H285">
         <v>0.06</v>
@@ -21718,10 +21715,10 @@
         <v>48</v>
       </c>
       <c r="E286" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F286" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H286">
         <v>-0.06</v>
@@ -21795,10 +21792,10 @@
         <v>48</v>
       </c>
       <c r="E287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F287" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H287">
         <v>-0.04</v>
@@ -21872,10 +21869,10 @@
         <v>48</v>
       </c>
       <c r="E288" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F288" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H288">
         <v>-0.02</v>
@@ -21949,10 +21946,10 @@
         <v>48</v>
       </c>
       <c r="E289" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F289" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -22026,10 +22023,10 @@
         <v>48</v>
       </c>
       <c r="E290" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F290" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H290">
         <v>0.02</v>
@@ -22103,10 +22100,10 @@
         <v>48</v>
       </c>
       <c r="E291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F291" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H291">
         <v>0.04</v>
@@ -22180,10 +22177,10 @@
         <v>48</v>
       </c>
       <c r="E292" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F292" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H292">
         <v>0.06</v>
@@ -22257,7 +22254,7 @@
         <v>44</v>
       </c>
       <c r="F293" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H293">
         <v>-0.06</v>
@@ -22331,7 +22328,7 @@
         <v>44</v>
       </c>
       <c r="F294" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H294">
         <v>-0.04</v>
@@ -22405,7 +22402,7 @@
         <v>44</v>
       </c>
       <c r="F295" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H295">
         <v>-0.02</v>
@@ -22479,7 +22476,7 @@
         <v>44</v>
       </c>
       <c r="F296" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -22553,7 +22550,7 @@
         <v>44</v>
       </c>
       <c r="F297" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H297">
         <v>0.02</v>
@@ -22627,7 +22624,7 @@
         <v>44</v>
       </c>
       <c r="F298" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H298">
         <v>0.04</v>
@@ -22701,7 +22698,7 @@
         <v>44</v>
       </c>
       <c r="F299" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H299">
         <v>0.06</v>
@@ -22775,7 +22772,7 @@
         <v>45</v>
       </c>
       <c r="F300" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H300">
         <v>-0.06</v>
@@ -22849,7 +22846,7 @@
         <v>45</v>
       </c>
       <c r="F301" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H301">
         <v>-0.04</v>
@@ -22923,7 +22920,7 @@
         <v>45</v>
       </c>
       <c r="F302" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H302">
         <v>-0.02</v>
@@ -22997,7 +22994,7 @@
         <v>45</v>
       </c>
       <c r="F303" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -23071,7 +23068,7 @@
         <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H304">
         <v>0.02</v>
@@ -23145,7 +23142,7 @@
         <v>45</v>
       </c>
       <c r="F305" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H305">
         <v>0.04</v>
@@ -23219,7 +23216,7 @@
         <v>45</v>
       </c>
       <c r="F306" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H306">
         <v>0.06</v>
@@ -23293,7 +23290,7 @@
         <v>46</v>
       </c>
       <c r="F307" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H307">
         <v>-0.06</v>
@@ -23367,7 +23364,7 @@
         <v>46</v>
       </c>
       <c r="F308" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H308">
         <v>-0.04</v>
@@ -23441,7 +23438,7 @@
         <v>46</v>
       </c>
       <c r="F309" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H309">
         <v>-0.02</v>
@@ -23515,7 +23512,7 @@
         <v>46</v>
       </c>
       <c r="F310" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -23589,7 +23586,7 @@
         <v>46</v>
       </c>
       <c r="F311" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H311">
         <v>0.02</v>
@@ -23663,7 +23660,7 @@
         <v>46</v>
       </c>
       <c r="F312" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H312">
         <v>0.04</v>
@@ -23737,7 +23734,7 @@
         <v>46</v>
       </c>
       <c r="F313" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H313">
         <v>0.06</v>
@@ -23811,7 +23808,7 @@
         <v>47</v>
       </c>
       <c r="F314" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H314">
         <v>-0.06</v>
@@ -23885,7 +23882,7 @@
         <v>47</v>
       </c>
       <c r="F315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H315">
         <v>-0.04</v>
@@ -23959,7 +23956,7 @@
         <v>47</v>
       </c>
       <c r="F316" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H316">
         <v>-0.02</v>
@@ -24033,7 +24030,7 @@
         <v>47</v>
       </c>
       <c r="F317" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -24107,7 +24104,7 @@
         <v>47</v>
       </c>
       <c r="F318" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H318">
         <v>0.02</v>
@@ -24181,7 +24178,7 @@
         <v>47</v>
       </c>
       <c r="F319" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H319">
         <v>0.04</v>
@@ -24255,7 +24252,7 @@
         <v>47</v>
       </c>
       <c r="F320" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H320">
         <v>0.06</v>
@@ -24329,10 +24326,10 @@
         <v>48</v>
       </c>
       <c r="E321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F321" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H321">
         <v>-0.06</v>
@@ -24406,10 +24403,10 @@
         <v>48</v>
       </c>
       <c r="E322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F322" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H322">
         <v>-0.04</v>
@@ -24483,10 +24480,10 @@
         <v>48</v>
       </c>
       <c r="E323" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H323">
         <v>-0.02</v>
@@ -24560,10 +24557,10 @@
         <v>48</v>
       </c>
       <c r="E324" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F324" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -24637,10 +24634,10 @@
         <v>48</v>
       </c>
       <c r="E325" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H325">
         <v>0.02</v>
@@ -24714,10 +24711,10 @@
         <v>48</v>
       </c>
       <c r="E326" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F326" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H326">
         <v>0.04</v>
@@ -24791,10 +24788,10 @@
         <v>48</v>
       </c>
       <c r="E327" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F327" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H327">
         <v>0.06</v>
@@ -24868,7 +24865,7 @@
         <v>44</v>
       </c>
       <c r="F328" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H328">
         <v>-0.06</v>
@@ -24942,7 +24939,7 @@
         <v>44</v>
       </c>
       <c r="F329" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H329">
         <v>-0.04</v>
@@ -25016,7 +25013,7 @@
         <v>44</v>
       </c>
       <c r="F330" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H330">
         <v>-0.02</v>
@@ -25090,7 +25087,7 @@
         <v>44</v>
       </c>
       <c r="F331" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -25164,7 +25161,7 @@
         <v>44</v>
       </c>
       <c r="F332" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H332">
         <v>0.02</v>
@@ -25238,7 +25235,7 @@
         <v>44</v>
       </c>
       <c r="F333" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H333">
         <v>0.04</v>
@@ -25312,7 +25309,7 @@
         <v>44</v>
       </c>
       <c r="F334" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H334">
         <v>0.06</v>
@@ -25386,7 +25383,7 @@
         <v>45</v>
       </c>
       <c r="F335" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H335">
         <v>-0.06</v>
@@ -25460,7 +25457,7 @@
         <v>45</v>
       </c>
       <c r="F336" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H336">
         <v>-0.04</v>
@@ -25534,7 +25531,7 @@
         <v>45</v>
       </c>
       <c r="F337" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H337">
         <v>-0.02</v>
@@ -25608,7 +25605,7 @@
         <v>45</v>
       </c>
       <c r="F338" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H338">
         <v>0</v>
@@ -25682,7 +25679,7 @@
         <v>45</v>
       </c>
       <c r="F339" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H339">
         <v>0.02</v>
@@ -25756,7 +25753,7 @@
         <v>45</v>
       </c>
       <c r="F340" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H340">
         <v>0.04</v>
@@ -25830,7 +25827,7 @@
         <v>45</v>
       </c>
       <c r="F341" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H341">
         <v>0.06</v>
@@ -25904,7 +25901,7 @@
         <v>46</v>
       </c>
       <c r="F342" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H342">
         <v>-0.06</v>
@@ -25978,7 +25975,7 @@
         <v>46</v>
       </c>
       <c r="F343" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H343">
         <v>-0.04</v>
@@ -26052,7 +26049,7 @@
         <v>46</v>
       </c>
       <c r="F344" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H344">
         <v>-0.02</v>
@@ -26126,7 +26123,7 @@
         <v>46</v>
       </c>
       <c r="F345" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -26200,7 +26197,7 @@
         <v>46</v>
       </c>
       <c r="F346" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H346">
         <v>0.02</v>
@@ -26274,7 +26271,7 @@
         <v>46</v>
       </c>
       <c r="F347" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H347">
         <v>0.04</v>
@@ -26348,7 +26345,7 @@
         <v>46</v>
       </c>
       <c r="F348" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H348">
         <v>0.06</v>
@@ -26422,7 +26419,7 @@
         <v>47</v>
       </c>
       <c r="F349" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H349">
         <v>-0.06</v>
@@ -26496,7 +26493,7 @@
         <v>47</v>
       </c>
       <c r="F350" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H350">
         <v>-0.04</v>
@@ -26570,7 +26567,7 @@
         <v>47</v>
       </c>
       <c r="F351" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H351">
         <v>-0.02</v>
@@ -26644,7 +26641,7 @@
         <v>47</v>
       </c>
       <c r="F352" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -26718,7 +26715,7 @@
         <v>47</v>
       </c>
       <c r="F353" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H353">
         <v>0.02</v>
@@ -26792,7 +26789,7 @@
         <v>47</v>
       </c>
       <c r="F354" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H354">
         <v>0.04</v>
@@ -26866,7 +26863,7 @@
         <v>47</v>
       </c>
       <c r="F355" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H355">
         <v>0.06</v>
@@ -26940,10 +26937,10 @@
         <v>48</v>
       </c>
       <c r="E356" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F356" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H356">
         <v>-0.06</v>
@@ -27017,10 +27014,10 @@
         <v>48</v>
       </c>
       <c r="E357" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F357" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H357">
         <v>-0.04</v>
@@ -27094,10 +27091,10 @@
         <v>48</v>
       </c>
       <c r="E358" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F358" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H358">
         <v>-0.02</v>
@@ -27171,10 +27168,10 @@
         <v>48</v>
       </c>
       <c r="E359" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F359" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -27248,10 +27245,10 @@
         <v>48</v>
       </c>
       <c r="E360" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F360" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H360">
         <v>0.02</v>
@@ -27325,10 +27322,10 @@
         <v>48</v>
       </c>
       <c r="E361" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F361" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H361">
         <v>0.04</v>
@@ -27402,10 +27399,10 @@
         <v>48</v>
       </c>
       <c r="E362" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F362" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H362">
         <v>0.06</v>
@@ -27479,7 +27476,7 @@
         <v>44</v>
       </c>
       <c r="F363" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H363">
         <v>-0.06</v>
@@ -27553,7 +27550,7 @@
         <v>44</v>
       </c>
       <c r="F364" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H364">
         <v>-0.04</v>
@@ -27627,7 +27624,7 @@
         <v>44</v>
       </c>
       <c r="F365" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H365">
         <v>-0.02</v>
@@ -27701,7 +27698,7 @@
         <v>44</v>
       </c>
       <c r="F366" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -27775,7 +27772,7 @@
         <v>44</v>
       </c>
       <c r="F367" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H367">
         <v>0.02</v>
@@ -27849,7 +27846,7 @@
         <v>44</v>
       </c>
       <c r="F368" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H368">
         <v>0.04</v>
@@ -27923,7 +27920,7 @@
         <v>44</v>
       </c>
       <c r="F369" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H369">
         <v>0.06</v>
@@ -27997,7 +27994,7 @@
         <v>45</v>
       </c>
       <c r="F370" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H370">
         <v>-0.06</v>
@@ -28071,7 +28068,7 @@
         <v>45</v>
       </c>
       <c r="F371" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H371">
         <v>-0.04</v>
@@ -28145,7 +28142,7 @@
         <v>45</v>
       </c>
       <c r="F372" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H372">
         <v>-0.02</v>
@@ -28219,7 +28216,7 @@
         <v>45</v>
       </c>
       <c r="F373" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -28293,7 +28290,7 @@
         <v>45</v>
       </c>
       <c r="F374" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H374">
         <v>0.02</v>
@@ -28367,7 +28364,7 @@
         <v>45</v>
       </c>
       <c r="F375" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H375">
         <v>0.04</v>
@@ -28441,7 +28438,7 @@
         <v>45</v>
       </c>
       <c r="F376" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H376">
         <v>0.06</v>
@@ -28515,7 +28512,7 @@
         <v>46</v>
       </c>
       <c r="F377" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H377">
         <v>-0.06</v>
@@ -28589,7 +28586,7 @@
         <v>46</v>
       </c>
       <c r="F378" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H378">
         <v>-0.04</v>
@@ -28663,7 +28660,7 @@
         <v>46</v>
       </c>
       <c r="F379" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H379">
         <v>-0.02</v>
@@ -28737,7 +28734,7 @@
         <v>46</v>
       </c>
       <c r="F380" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -28811,7 +28808,7 @@
         <v>46</v>
       </c>
       <c r="F381" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H381">
         <v>0.02</v>
@@ -28885,7 +28882,7 @@
         <v>46</v>
       </c>
       <c r="F382" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H382">
         <v>0.04</v>
@@ -28959,7 +28956,7 @@
         <v>46</v>
       </c>
       <c r="F383" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H383">
         <v>0.06</v>
@@ -29033,7 +29030,7 @@
         <v>47</v>
       </c>
       <c r="F384" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H384">
         <v>-0.06</v>
@@ -29107,7 +29104,7 @@
         <v>47</v>
       </c>
       <c r="F385" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H385">
         <v>-0.04</v>
@@ -29181,7 +29178,7 @@
         <v>47</v>
       </c>
       <c r="F386" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H386">
         <v>-0.02</v>
@@ -29255,7 +29252,7 @@
         <v>47</v>
       </c>
       <c r="F387" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H387">
         <v>0</v>
@@ -29329,7 +29326,7 @@
         <v>47</v>
       </c>
       <c r="F388" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H388">
         <v>0.02</v>
@@ -29403,7 +29400,7 @@
         <v>47</v>
       </c>
       <c r="F389" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H389">
         <v>0.04</v>
@@ -29477,7 +29474,7 @@
         <v>47</v>
       </c>
       <c r="F390" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H390">
         <v>0.06</v>
@@ -29551,10 +29548,10 @@
         <v>48</v>
       </c>
       <c r="E391" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F391" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H391">
         <v>-0.06</v>
@@ -29628,10 +29625,10 @@
         <v>48</v>
       </c>
       <c r="E392" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F392" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H392">
         <v>-0.04</v>
@@ -29705,10 +29702,10 @@
         <v>48</v>
       </c>
       <c r="E393" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F393" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H393">
         <v>-0.02</v>
@@ -29782,10 +29779,10 @@
         <v>48</v>
       </c>
       <c r="E394" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F394" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H394">
         <v>0</v>
@@ -29859,10 +29856,10 @@
         <v>48</v>
       </c>
       <c r="E395" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F395" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H395">
         <v>0.02</v>
@@ -29936,10 +29933,10 @@
         <v>48</v>
       </c>
       <c r="E396" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F396" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H396">
         <v>0.04</v>
@@ -30013,10 +30010,10 @@
         <v>48</v>
       </c>
       <c r="E397" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F397" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H397">
         <v>0.06</v>
@@ -30090,7 +30087,7 @@
         <v>44</v>
       </c>
       <c r="F398" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H398">
         <v>-0.06</v>
@@ -30164,7 +30161,7 @@
         <v>44</v>
       </c>
       <c r="F399" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H399">
         <v>-0.04</v>
@@ -30238,7 +30235,7 @@
         <v>44</v>
       </c>
       <c r="F400" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H400">
         <v>-0.02</v>
@@ -30312,7 +30309,7 @@
         <v>44</v>
       </c>
       <c r="F401" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H401">
         <v>0</v>
@@ -30386,7 +30383,7 @@
         <v>44</v>
       </c>
       <c r="F402" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H402">
         <v>0.02</v>
@@ -30460,7 +30457,7 @@
         <v>44</v>
       </c>
       <c r="F403" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H403">
         <v>0.04</v>
@@ -30534,7 +30531,7 @@
         <v>44</v>
       </c>
       <c r="F404" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H404">
         <v>0.06</v>
@@ -30608,7 +30605,7 @@
         <v>45</v>
       </c>
       <c r="F405" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H405">
         <v>-0.06</v>
@@ -30682,7 +30679,7 @@
         <v>45</v>
       </c>
       <c r="F406" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H406">
         <v>-0.04</v>
@@ -30756,7 +30753,7 @@
         <v>45</v>
       </c>
       <c r="F407" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H407">
         <v>-0.02</v>
@@ -30830,7 +30827,7 @@
         <v>45</v>
       </c>
       <c r="F408" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H408">
         <v>0</v>
@@ -30904,7 +30901,7 @@
         <v>45</v>
       </c>
       <c r="F409" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H409">
         <v>0.02</v>
@@ -30978,7 +30975,7 @@
         <v>45</v>
       </c>
       <c r="F410" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H410">
         <v>0.04</v>
@@ -31052,7 +31049,7 @@
         <v>45</v>
       </c>
       <c r="F411" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H411">
         <v>0.06</v>
@@ -31126,7 +31123,7 @@
         <v>46</v>
       </c>
       <c r="F412" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H412">
         <v>-0.06</v>
@@ -31200,7 +31197,7 @@
         <v>46</v>
       </c>
       <c r="F413" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H413">
         <v>-0.04</v>
@@ -31274,7 +31271,7 @@
         <v>46</v>
       </c>
       <c r="F414" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H414">
         <v>-0.02</v>
@@ -31348,7 +31345,7 @@
         <v>46</v>
       </c>
       <c r="F415" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H415">
         <v>0</v>
@@ -31422,7 +31419,7 @@
         <v>46</v>
       </c>
       <c r="F416" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H416">
         <v>0.02</v>
@@ -31496,7 +31493,7 @@
         <v>46</v>
       </c>
       <c r="F417" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H417">
         <v>0.04</v>
@@ -31570,7 +31567,7 @@
         <v>46</v>
       </c>
       <c r="F418" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H418">
         <v>0.06</v>
@@ -31644,7 +31641,7 @@
         <v>47</v>
       </c>
       <c r="F419" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H419">
         <v>-0.06</v>
@@ -31718,7 +31715,7 @@
         <v>47</v>
       </c>
       <c r="F420" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H420">
         <v>-0.04</v>
@@ -31792,7 +31789,7 @@
         <v>47</v>
       </c>
       <c r="F421" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H421">
         <v>-0.02</v>
@@ -31866,7 +31863,7 @@
         <v>47</v>
       </c>
       <c r="F422" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H422">
         <v>0</v>
@@ -31940,7 +31937,7 @@
         <v>47</v>
       </c>
       <c r="F423" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H423">
         <v>0.02</v>
@@ -32014,7 +32011,7 @@
         <v>47</v>
       </c>
       <c r="F424" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H424">
         <v>0.04</v>
@@ -32088,7 +32085,7 @@
         <v>47</v>
       </c>
       <c r="F425" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H425">
         <v>0.06</v>
@@ -32162,10 +32159,10 @@
         <v>48</v>
       </c>
       <c r="E426" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F426" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H426">
         <v>-0.06</v>
@@ -32239,10 +32236,10 @@
         <v>48</v>
       </c>
       <c r="E427" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F427" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H427">
         <v>-0.04</v>
@@ -32316,10 +32313,10 @@
         <v>48</v>
       </c>
       <c r="E428" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F428" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H428">
         <v>-0.02</v>
@@ -32393,10 +32390,10 @@
         <v>48</v>
       </c>
       <c r="E429" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F429" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H429">
         <v>0</v>
@@ -32470,10 +32467,10 @@
         <v>48</v>
       </c>
       <c r="E430" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F430" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H430">
         <v>0.02</v>
@@ -32547,10 +32544,10 @@
         <v>48</v>
       </c>
       <c r="E431" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F431" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H431">
         <v>0.04</v>
@@ -32624,10 +32621,10 @@
         <v>48</v>
       </c>
       <c r="E432" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F432" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H432">
         <v>0.06</v>
@@ -32701,7 +32698,7 @@
         <v>44</v>
       </c>
       <c r="F433" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H433">
         <v>-0.06</v>
@@ -32775,7 +32772,7 @@
         <v>44</v>
       </c>
       <c r="F434" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H434">
         <v>-0.04</v>
@@ -32849,7 +32846,7 @@
         <v>44</v>
       </c>
       <c r="F435" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H435">
         <v>-0.02</v>
@@ -32923,7 +32920,7 @@
         <v>44</v>
       </c>
       <c r="F436" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H436">
         <v>0</v>
@@ -32997,7 +32994,7 @@
         <v>44</v>
       </c>
       <c r="F437" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H437">
         <v>0.02</v>
@@ -33071,7 +33068,7 @@
         <v>44</v>
       </c>
       <c r="F438" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H438">
         <v>0.04</v>
@@ -33145,7 +33142,7 @@
         <v>44</v>
       </c>
       <c r="F439" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H439">
         <v>0.06</v>
@@ -33219,7 +33216,7 @@
         <v>45</v>
       </c>
       <c r="F440" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H440">
         <v>-0.06</v>
@@ -33293,7 +33290,7 @@
         <v>45</v>
       </c>
       <c r="F441" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H441">
         <v>-0.04</v>
@@ -33367,7 +33364,7 @@
         <v>45</v>
       </c>
       <c r="F442" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H442">
         <v>-0.02</v>
@@ -33441,7 +33438,7 @@
         <v>45</v>
       </c>
       <c r="F443" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H443">
         <v>0</v>
@@ -33515,7 +33512,7 @@
         <v>45</v>
       </c>
       <c r="F444" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H444">
         <v>0.02</v>
@@ -33589,7 +33586,7 @@
         <v>45</v>
       </c>
       <c r="F445" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H445">
         <v>0.04</v>
@@ -33663,7 +33660,7 @@
         <v>45</v>
       </c>
       <c r="F446" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H446">
         <v>0.06</v>
@@ -33737,7 +33734,7 @@
         <v>46</v>
       </c>
       <c r="F447" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H447">
         <v>-0.06</v>
@@ -33811,7 +33808,7 @@
         <v>46</v>
       </c>
       <c r="F448" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H448">
         <v>-0.04</v>
@@ -33885,7 +33882,7 @@
         <v>46</v>
       </c>
       <c r="F449" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H449">
         <v>-0.02</v>
@@ -33959,7 +33956,7 @@
         <v>46</v>
       </c>
       <c r="F450" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H450">
         <v>0</v>
@@ -34033,7 +34030,7 @@
         <v>46</v>
       </c>
       <c r="F451" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H451">
         <v>0.02</v>
@@ -34107,7 +34104,7 @@
         <v>46</v>
       </c>
       <c r="F452" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H452">
         <v>0.04</v>
@@ -34181,7 +34178,7 @@
         <v>46</v>
       </c>
       <c r="F453" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H453">
         <v>0.06</v>
@@ -34255,7 +34252,7 @@
         <v>47</v>
       </c>
       <c r="F454" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H454">
         <v>-0.06</v>
@@ -34329,7 +34326,7 @@
         <v>47</v>
       </c>
       <c r="F455" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H455">
         <v>-0.04</v>
@@ -34403,7 +34400,7 @@
         <v>47</v>
       </c>
       <c r="F456" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H456">
         <v>-0.02</v>
@@ -34477,7 +34474,7 @@
         <v>47</v>
       </c>
       <c r="F457" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H457">
         <v>0</v>
@@ -34551,7 +34548,7 @@
         <v>47</v>
       </c>
       <c r="F458" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H458">
         <v>0.02</v>
@@ -34625,7 +34622,7 @@
         <v>47</v>
       </c>
       <c r="F459" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H459">
         <v>0.04</v>
@@ -34699,7 +34696,7 @@
         <v>47</v>
       </c>
       <c r="F460" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H460">
         <v>0.06</v>
@@ -34773,10 +34770,10 @@
         <v>48</v>
       </c>
       <c r="E461" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F461" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H461">
         <v>-0.06</v>
@@ -34850,10 +34847,10 @@
         <v>48</v>
       </c>
       <c r="E462" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F462" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H462">
         <v>-0.04</v>
@@ -34927,10 +34924,10 @@
         <v>48</v>
       </c>
       <c r="E463" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F463" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H463">
         <v>-0.02</v>
@@ -35004,10 +35001,10 @@
         <v>48</v>
       </c>
       <c r="E464" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F464" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H464">
         <v>0</v>
@@ -35081,10 +35078,10 @@
         <v>48</v>
       </c>
       <c r="E465" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F465" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H465">
         <v>0.02</v>
@@ -35158,10 +35155,10 @@
         <v>48</v>
       </c>
       <c r="E466" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F466" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H466">
         <v>0.04</v>
@@ -35235,10 +35232,10 @@
         <v>48</v>
       </c>
       <c r="E467" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F467" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H467">
         <v>0.06</v>
@@ -35312,7 +35309,7 @@
         <v>44</v>
       </c>
       <c r="F468" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H468">
         <v>-0.06</v>
@@ -35386,7 +35383,7 @@
         <v>44</v>
       </c>
       <c r="F469" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H469">
         <v>-0.04</v>
@@ -35460,7 +35457,7 @@
         <v>44</v>
       </c>
       <c r="F470" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H470">
         <v>-0.02</v>
@@ -35534,7 +35531,7 @@
         <v>44</v>
       </c>
       <c r="F471" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H471">
         <v>0</v>
@@ -35608,7 +35605,7 @@
         <v>44</v>
       </c>
       <c r="F472" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H472">
         <v>0.02</v>
@@ -35682,7 +35679,7 @@
         <v>44</v>
       </c>
       <c r="F473" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H473">
         <v>0.04</v>
@@ -35756,7 +35753,7 @@
         <v>44</v>
       </c>
       <c r="F474" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H474">
         <v>0.06</v>
@@ -35830,7 +35827,7 @@
         <v>45</v>
       </c>
       <c r="F475" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H475">
         <v>-0.06</v>
@@ -35904,7 +35901,7 @@
         <v>45</v>
       </c>
       <c r="F476" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H476">
         <v>-0.04</v>
@@ -35978,7 +35975,7 @@
         <v>45</v>
       </c>
       <c r="F477" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H477">
         <v>-0.02</v>
@@ -36052,7 +36049,7 @@
         <v>45</v>
       </c>
       <c r="F478" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H478">
         <v>0</v>
@@ -36126,7 +36123,7 @@
         <v>45</v>
       </c>
       <c r="F479" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H479">
         <v>0.02</v>
@@ -36200,7 +36197,7 @@
         <v>45</v>
       </c>
       <c r="F480" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H480">
         <v>0.04</v>
@@ -36274,7 +36271,7 @@
         <v>45</v>
       </c>
       <c r="F481" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H481">
         <v>0.06</v>
@@ -36348,7 +36345,7 @@
         <v>46</v>
       </c>
       <c r="F482" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H482">
         <v>-0.06</v>
@@ -36422,7 +36419,7 @@
         <v>46</v>
       </c>
       <c r="F483" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H483">
         <v>-0.04</v>
@@ -36496,7 +36493,7 @@
         <v>46</v>
       </c>
       <c r="F484" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H484">
         <v>-0.02</v>
@@ -36570,7 +36567,7 @@
         <v>46</v>
       </c>
       <c r="F485" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H485">
         <v>0</v>
@@ -36644,7 +36641,7 @@
         <v>46</v>
       </c>
       <c r="F486" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H486">
         <v>0.02</v>
@@ -36718,7 +36715,7 @@
         <v>46</v>
       </c>
       <c r="F487" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H487">
         <v>0.04</v>
@@ -36792,7 +36789,7 @@
         <v>46</v>
       </c>
       <c r="F488" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H488">
         <v>0.06</v>
@@ -36866,7 +36863,7 @@
         <v>47</v>
       </c>
       <c r="F489" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H489">
         <v>-0.06</v>
@@ -36940,7 +36937,7 @@
         <v>47</v>
       </c>
       <c r="F490" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H490">
         <v>-0.04</v>
@@ -37014,7 +37011,7 @@
         <v>47</v>
       </c>
       <c r="F491" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H491">
         <v>-0.02</v>
@@ -37088,7 +37085,7 @@
         <v>47</v>
       </c>
       <c r="F492" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H492">
         <v>0</v>
@@ -37162,7 +37159,7 @@
         <v>47</v>
       </c>
       <c r="F493" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H493">
         <v>0.02</v>
@@ -37236,7 +37233,7 @@
         <v>47</v>
       </c>
       <c r="F494" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H494">
         <v>0.04</v>
@@ -37310,7 +37307,7 @@
         <v>47</v>
       </c>
       <c r="F495" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H495">
         <v>0.06</v>
@@ -37384,10 +37381,10 @@
         <v>48</v>
       </c>
       <c r="E496" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F496" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H496">
         <v>-0.06</v>
@@ -37461,10 +37458,10 @@
         <v>48</v>
       </c>
       <c r="E497" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F497" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H497">
         <v>-0.04</v>
@@ -37538,10 +37535,10 @@
         <v>48</v>
       </c>
       <c r="E498" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F498" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H498">
         <v>-0.02</v>
@@ -37615,10 +37612,10 @@
         <v>48</v>
       </c>
       <c r="E499" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F499" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H499">
         <v>0</v>
@@ -37692,10 +37689,10 @@
         <v>48</v>
       </c>
       <c r="E500" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F500" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H500">
         <v>0.02</v>
@@ -37769,10 +37766,10 @@
         <v>48</v>
       </c>
       <c r="E501" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F501" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H501">
         <v>0.04</v>
@@ -37846,10 +37843,10 @@
         <v>48</v>
       </c>
       <c r="E502" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F502" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H502">
         <v>0.06</v>
@@ -37923,7 +37920,7 @@
         <v>44</v>
       </c>
       <c r="F503" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H503">
         <v>-0.06</v>
@@ -37997,7 +37994,7 @@
         <v>44</v>
       </c>
       <c r="F504" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H504">
         <v>-0.04</v>
@@ -38071,7 +38068,7 @@
         <v>44</v>
       </c>
       <c r="F505" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H505">
         <v>-0.02</v>
@@ -38145,7 +38142,7 @@
         <v>44</v>
       </c>
       <c r="F506" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H506">
         <v>0</v>
@@ -38219,7 +38216,7 @@
         <v>44</v>
       </c>
       <c r="F507" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H507">
         <v>0.02</v>
@@ -38293,7 +38290,7 @@
         <v>44</v>
       </c>
       <c r="F508" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H508">
         <v>0.04</v>
@@ -38367,7 +38364,7 @@
         <v>44</v>
       </c>
       <c r="F509" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H509">
         <v>0.06</v>
@@ -38441,7 +38438,7 @@
         <v>45</v>
       </c>
       <c r="F510" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H510">
         <v>-0.06</v>
@@ -38515,7 +38512,7 @@
         <v>45</v>
       </c>
       <c r="F511" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H511">
         <v>-0.04</v>
@@ -38589,7 +38586,7 @@
         <v>45</v>
       </c>
       <c r="F512" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H512">
         <v>-0.02</v>
@@ -38663,7 +38660,7 @@
         <v>45</v>
       </c>
       <c r="F513" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H513">
         <v>0</v>
@@ -38737,7 +38734,7 @@
         <v>45</v>
       </c>
       <c r="F514" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H514">
         <v>0.02</v>
@@ -38811,7 +38808,7 @@
         <v>45</v>
       </c>
       <c r="F515" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H515">
         <v>0.04</v>
@@ -38885,7 +38882,7 @@
         <v>45</v>
       </c>
       <c r="F516" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H516">
         <v>0.06</v>
@@ -38959,7 +38956,7 @@
         <v>46</v>
       </c>
       <c r="F517" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H517">
         <v>-0.06</v>
@@ -39033,7 +39030,7 @@
         <v>46</v>
       </c>
       <c r="F518" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H518">
         <v>-0.04</v>
@@ -39107,7 +39104,7 @@
         <v>46</v>
       </c>
       <c r="F519" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H519">
         <v>-0.02</v>
@@ -39181,7 +39178,7 @@
         <v>46</v>
       </c>
       <c r="F520" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H520">
         <v>0</v>
@@ -39255,7 +39252,7 @@
         <v>46</v>
       </c>
       <c r="F521" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H521">
         <v>0.02</v>
@@ -39329,7 +39326,7 @@
         <v>46</v>
       </c>
       <c r="F522" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H522">
         <v>0.04</v>
@@ -39403,7 +39400,7 @@
         <v>46</v>
       </c>
       <c r="F523" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H523">
         <v>0.06</v>
@@ -39477,7 +39474,7 @@
         <v>47</v>
       </c>
       <c r="F524" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H524">
         <v>-0.06</v>
@@ -39551,7 +39548,7 @@
         <v>47</v>
       </c>
       <c r="F525" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H525">
         <v>-0.04</v>
@@ -39625,7 +39622,7 @@
         <v>47</v>
       </c>
       <c r="F526" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H526">
         <v>-0.02</v>
@@ -39699,7 +39696,7 @@
         <v>47</v>
       </c>
       <c r="F527" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H527">
         <v>0</v>
@@ -39773,7 +39770,7 @@
         <v>47</v>
       </c>
       <c r="F528" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H528">
         <v>0.02</v>
@@ -39847,7 +39844,7 @@
         <v>47</v>
       </c>
       <c r="F529" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H529">
         <v>0.04</v>
@@ -39921,7 +39918,7 @@
         <v>47</v>
       </c>
       <c r="F530" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H530">
         <v>0.06</v>
@@ -39995,10 +39992,10 @@
         <v>48</v>
       </c>
       <c r="E531" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F531" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H531">
         <v>-0.06</v>
@@ -40072,10 +40069,10 @@
         <v>48</v>
       </c>
       <c r="E532" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F532" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H532">
         <v>-0.04</v>
@@ -40149,10 +40146,10 @@
         <v>48</v>
       </c>
       <c r="E533" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F533" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H533">
         <v>-0.02</v>
@@ -40226,10 +40223,10 @@
         <v>48</v>
       </c>
       <c r="E534" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F534" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H534">
         <v>0</v>
@@ -40303,10 +40300,10 @@
         <v>48</v>
       </c>
       <c r="E535" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F535" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H535">
         <v>0.02</v>
@@ -40380,10 +40377,10 @@
         <v>48</v>
       </c>
       <c r="E536" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F536" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H536">
         <v>0.04</v>
@@ -40457,10 +40454,10 @@
         <v>48</v>
       </c>
       <c r="E537" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F537" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H537">
         <v>0.06</v>
@@ -40534,7 +40531,7 @@
         <v>44</v>
       </c>
       <c r="F538" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H538">
         <v>-0.06</v>
@@ -40608,7 +40605,7 @@
         <v>44</v>
       </c>
       <c r="F539" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H539">
         <v>-0.04</v>
@@ -40682,7 +40679,7 @@
         <v>44</v>
       </c>
       <c r="F540" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H540">
         <v>-0.02</v>
@@ -40756,7 +40753,7 @@
         <v>44</v>
       </c>
       <c r="F541" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H541">
         <v>0</v>
@@ -40830,7 +40827,7 @@
         <v>44</v>
       </c>
       <c r="F542" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H542">
         <v>0.02</v>
@@ -40904,7 +40901,7 @@
         <v>44</v>
       </c>
       <c r="F543" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H543">
         <v>0.04</v>
@@ -40978,7 +40975,7 @@
         <v>44</v>
       </c>
       <c r="F544" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H544">
         <v>0.06</v>
@@ -41052,7 +41049,7 @@
         <v>45</v>
       </c>
       <c r="F545" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H545">
         <v>-0.06</v>
@@ -41126,7 +41123,7 @@
         <v>45</v>
       </c>
       <c r="F546" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H546">
         <v>-0.04</v>
@@ -41200,7 +41197,7 @@
         <v>45</v>
       </c>
       <c r="F547" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H547">
         <v>-0.02</v>
@@ -41274,7 +41271,7 @@
         <v>45</v>
       </c>
       <c r="F548" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H548">
         <v>0</v>
@@ -41348,7 +41345,7 @@
         <v>45</v>
       </c>
       <c r="F549" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H549">
         <v>0.02</v>
@@ -41422,7 +41419,7 @@
         <v>45</v>
       </c>
       <c r="F550" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H550">
         <v>0.04</v>
@@ -41496,7 +41493,7 @@
         <v>45</v>
       </c>
       <c r="F551" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H551">
         <v>0.06</v>
@@ -41570,7 +41567,7 @@
         <v>46</v>
       </c>
       <c r="F552" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H552">
         <v>-0.06</v>
@@ -41644,7 +41641,7 @@
         <v>46</v>
       </c>
       <c r="F553" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H553">
         <v>-0.04</v>
@@ -41718,7 +41715,7 @@
         <v>46</v>
       </c>
       <c r="F554" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H554">
         <v>-0.02</v>
@@ -41792,7 +41789,7 @@
         <v>46</v>
       </c>
       <c r="F555" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H555">
         <v>0</v>
@@ -41866,7 +41863,7 @@
         <v>46</v>
       </c>
       <c r="F556" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H556">
         <v>0.02</v>
@@ -41940,7 +41937,7 @@
         <v>46</v>
       </c>
       <c r="F557" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H557">
         <v>0.04</v>
@@ -42014,7 +42011,7 @@
         <v>46</v>
       </c>
       <c r="F558" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H558">
         <v>0.06</v>
@@ -42088,7 +42085,7 @@
         <v>47</v>
       </c>
       <c r="F559" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H559">
         <v>-0.06</v>
@@ -42162,7 +42159,7 @@
         <v>47</v>
       </c>
       <c r="F560" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H560">
         <v>-0.04</v>
@@ -42236,7 +42233,7 @@
         <v>47</v>
       </c>
       <c r="F561" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H561">
         <v>-0.02</v>
@@ -42310,7 +42307,7 @@
         <v>47</v>
       </c>
       <c r="F562" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H562">
         <v>0</v>
@@ -42384,7 +42381,7 @@
         <v>47</v>
       </c>
       <c r="F563" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H563">
         <v>0.02</v>
@@ -42458,7 +42455,7 @@
         <v>47</v>
       </c>
       <c r="F564" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H564">
         <v>0.04</v>
@@ -42532,7 +42529,7 @@
         <v>47</v>
       </c>
       <c r="F565" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H565">
         <v>0.06</v>
@@ -42606,10 +42603,10 @@
         <v>48</v>
       </c>
       <c r="E566" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F566" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H566">
         <v>-0.06</v>
@@ -42683,10 +42680,10 @@
         <v>48</v>
       </c>
       <c r="E567" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F567" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H567">
         <v>-0.04</v>
@@ -42760,10 +42757,10 @@
         <v>48</v>
       </c>
       <c r="E568" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F568" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H568">
         <v>-0.02</v>
@@ -42837,10 +42834,10 @@
         <v>48</v>
       </c>
       <c r="E569" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F569" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H569">
         <v>0</v>
@@ -42914,10 +42911,10 @@
         <v>48</v>
       </c>
       <c r="E570" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F570" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H570">
         <v>0.02</v>
@@ -42991,10 +42988,10 @@
         <v>48</v>
       </c>
       <c r="E571" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F571" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H571">
         <v>0.04</v>
@@ -43068,10 +43065,10 @@
         <v>48</v>
       </c>
       <c r="E572" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F572" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H572">
         <v>0.06</v>
@@ -43145,7 +43142,7 @@
         <v>44</v>
       </c>
       <c r="F573" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H573">
         <v>-0.06</v>
@@ -43219,7 +43216,7 @@
         <v>44</v>
       </c>
       <c r="F574" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H574">
         <v>-0.04</v>
@@ -43293,7 +43290,7 @@
         <v>44</v>
       </c>
       <c r="F575" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H575">
         <v>-0.02</v>
@@ -43367,7 +43364,7 @@
         <v>44</v>
       </c>
       <c r="F576" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H576">
         <v>0</v>
@@ -43441,7 +43438,7 @@
         <v>44</v>
       </c>
       <c r="F577" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H577">
         <v>0.02</v>
@@ -43515,7 +43512,7 @@
         <v>44</v>
       </c>
       <c r="F578" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H578">
         <v>0.04</v>
@@ -43589,7 +43586,7 @@
         <v>44</v>
       </c>
       <c r="F579" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H579">
         <v>0.06</v>
@@ -43663,7 +43660,7 @@
         <v>45</v>
       </c>
       <c r="F580" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H580">
         <v>-0.06</v>
@@ -43737,7 +43734,7 @@
         <v>45</v>
       </c>
       <c r="F581" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H581">
         <v>-0.04</v>
@@ -43811,7 +43808,7 @@
         <v>45</v>
       </c>
       <c r="F582" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H582">
         <v>-0.02</v>
@@ -43885,7 +43882,7 @@
         <v>45</v>
       </c>
       <c r="F583" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H583">
         <v>0</v>
@@ -43959,7 +43956,7 @@
         <v>45</v>
       </c>
       <c r="F584" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H584">
         <v>0.02</v>
@@ -44033,7 +44030,7 @@
         <v>45</v>
       </c>
       <c r="F585" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H585">
         <v>0.04</v>
@@ -44107,7 +44104,7 @@
         <v>45</v>
       </c>
       <c r="F586" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H586">
         <v>0.06</v>
@@ -44181,7 +44178,7 @@
         <v>46</v>
       </c>
       <c r="F587" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H587">
         <v>-0.06</v>
@@ -44255,7 +44252,7 @@
         <v>46</v>
       </c>
       <c r="F588" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H588">
         <v>-0.04</v>
@@ -44329,7 +44326,7 @@
         <v>46</v>
       </c>
       <c r="F589" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H589">
         <v>-0.02</v>
@@ -44403,7 +44400,7 @@
         <v>46</v>
       </c>
       <c r="F590" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H590">
         <v>0</v>
@@ -44477,7 +44474,7 @@
         <v>46</v>
       </c>
       <c r="F591" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H591">
         <v>0.02</v>
@@ -44551,7 +44548,7 @@
         <v>46</v>
       </c>
       <c r="F592" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H592">
         <v>0.04</v>
@@ -44625,7 +44622,7 @@
         <v>46</v>
       </c>
       <c r="F593" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H593">
         <v>0.06</v>
@@ -44699,7 +44696,7 @@
         <v>47</v>
       </c>
       <c r="F594" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H594">
         <v>-0.06</v>
@@ -44773,7 +44770,7 @@
         <v>47</v>
       </c>
       <c r="F595" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H595">
         <v>-0.04</v>
@@ -44847,7 +44844,7 @@
         <v>47</v>
       </c>
       <c r="F596" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H596">
         <v>-0.02</v>
@@ -44921,7 +44918,7 @@
         <v>47</v>
       </c>
       <c r="F597" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H597">
         <v>0</v>
@@ -44995,7 +44992,7 @@
         <v>47</v>
       </c>
       <c r="F598" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H598">
         <v>0.02</v>
@@ -45069,7 +45066,7 @@
         <v>47</v>
       </c>
       <c r="F599" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H599">
         <v>0.04</v>
@@ -45143,7 +45140,7 @@
         <v>47</v>
       </c>
       <c r="F600" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H600">
         <v>0.06</v>
@@ -45217,10 +45214,10 @@
         <v>48</v>
       </c>
       <c r="E601" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F601" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H601">
         <v>-0.06</v>
@@ -45294,10 +45291,10 @@
         <v>48</v>
       </c>
       <c r="E602" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F602" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H602">
         <v>-0.04</v>
@@ -45371,10 +45368,10 @@
         <v>48</v>
       </c>
       <c r="E603" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F603" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H603">
         <v>-0.02</v>
@@ -45448,10 +45445,10 @@
         <v>48</v>
       </c>
       <c r="E604" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F604" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H604">
         <v>0</v>
@@ -45525,10 +45522,10 @@
         <v>48</v>
       </c>
       <c r="E605" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F605" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H605">
         <v>0.02</v>
@@ -45602,10 +45599,10 @@
         <v>48</v>
       </c>
       <c r="E606" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F606" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H606">
         <v>0.04</v>
@@ -45679,10 +45676,10 @@
         <v>48</v>
       </c>
       <c r="E607" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F607" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H607">
         <v>0.06</v>
@@ -45756,7 +45753,7 @@
         <v>44</v>
       </c>
       <c r="F608" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H608">
         <v>-0.06</v>
@@ -45830,7 +45827,7 @@
         <v>44</v>
       </c>
       <c r="F609" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H609">
         <v>-0.04</v>
@@ -45904,7 +45901,7 @@
         <v>44</v>
       </c>
       <c r="F610" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H610">
         <v>-0.02</v>
@@ -45978,7 +45975,7 @@
         <v>44</v>
       </c>
       <c r="F611" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H611">
         <v>0</v>
@@ -46052,7 +46049,7 @@
         <v>44</v>
       </c>
       <c r="F612" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H612">
         <v>0.02</v>
@@ -46126,7 +46123,7 @@
         <v>44</v>
       </c>
       <c r="F613" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H613">
         <v>0.04</v>
@@ -46200,7 +46197,7 @@
         <v>44</v>
       </c>
       <c r="F614" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H614">
         <v>0.06</v>
@@ -46274,7 +46271,7 @@
         <v>45</v>
       </c>
       <c r="F615" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H615">
         <v>-0.06</v>
@@ -46348,7 +46345,7 @@
         <v>45</v>
       </c>
       <c r="F616" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H616">
         <v>-0.04</v>
@@ -46422,7 +46419,7 @@
         <v>45</v>
       </c>
       <c r="F617" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H617">
         <v>-0.02</v>
@@ -46496,7 +46493,7 @@
         <v>45</v>
       </c>
       <c r="F618" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H618">
         <v>0</v>
@@ -46570,7 +46567,7 @@
         <v>45</v>
       </c>
       <c r="F619" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H619">
         <v>0.02</v>
@@ -46644,7 +46641,7 @@
         <v>45</v>
       </c>
       <c r="F620" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H620">
         <v>0.04</v>
@@ -46718,7 +46715,7 @@
         <v>45</v>
       </c>
       <c r="F621" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H621">
         <v>0.06</v>
@@ -46792,7 +46789,7 @@
         <v>46</v>
       </c>
       <c r="F622" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H622">
         <v>-0.06</v>
@@ -46866,7 +46863,7 @@
         <v>46</v>
       </c>
       <c r="F623" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H623">
         <v>-0.04</v>
@@ -46940,7 +46937,7 @@
         <v>46</v>
       </c>
       <c r="F624" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H624">
         <v>-0.02</v>
@@ -47014,7 +47011,7 @@
         <v>46</v>
       </c>
       <c r="F625" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H625">
         <v>0</v>
@@ -47088,7 +47085,7 @@
         <v>46</v>
       </c>
       <c r="F626" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H626">
         <v>0.02</v>
@@ -47162,7 +47159,7 @@
         <v>46</v>
       </c>
       <c r="F627" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H627">
         <v>0.04</v>
@@ -47236,7 +47233,7 @@
         <v>46</v>
       </c>
       <c r="F628" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H628">
         <v>0.06</v>
@@ -47310,7 +47307,7 @@
         <v>47</v>
       </c>
       <c r="F629" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H629">
         <v>-0.06</v>
@@ -47384,7 +47381,7 @@
         <v>47</v>
       </c>
       <c r="F630" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H630">
         <v>-0.04</v>
@@ -47458,7 +47455,7 @@
         <v>47</v>
       </c>
       <c r="F631" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H631">
         <v>-0.02</v>
@@ -47532,7 +47529,7 @@
         <v>47</v>
       </c>
       <c r="F632" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H632">
         <v>0</v>
@@ -47606,7 +47603,7 @@
         <v>47</v>
       </c>
       <c r="F633" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H633">
         <v>0.02</v>
@@ -47680,7 +47677,7 @@
         <v>47</v>
       </c>
       <c r="F634" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H634">
         <v>0.04</v>
@@ -47754,7 +47751,7 @@
         <v>47</v>
       </c>
       <c r="F635" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H635">
         <v>0.06</v>
@@ -47828,10 +47825,10 @@
         <v>48</v>
       </c>
       <c r="E636" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F636" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H636">
         <v>-0.06</v>
@@ -47905,10 +47902,10 @@
         <v>48</v>
       </c>
       <c r="E637" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F637" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H637">
         <v>-0.04</v>
@@ -47982,10 +47979,10 @@
         <v>48</v>
       </c>
       <c r="E638" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F638" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H638">
         <v>-0.02</v>
@@ -48059,10 +48056,10 @@
         <v>48</v>
       </c>
       <c r="E639" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F639" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H639">
         <v>0</v>
@@ -48136,10 +48133,10 @@
         <v>48</v>
       </c>
       <c r="E640" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F640" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H640">
         <v>0.02</v>
@@ -48213,10 +48210,10 @@
         <v>48</v>
       </c>
       <c r="E641" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F641" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H641">
         <v>0.04</v>
@@ -48290,10 +48287,10 @@
         <v>48</v>
       </c>
       <c r="E642" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F642" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H642">
         <v>0.06</v>
@@ -48367,10 +48364,10 @@
         <v>44</v>
       </c>
       <c r="F643" t="s">
+        <v>55</v>
+      </c>
+      <c r="G643" t="s">
         <v>56</v>
-      </c>
-      <c r="G643" t="s">
-        <v>57</v>
       </c>
       <c r="J643">
         <v>10</v>
@@ -48438,10 +48435,10 @@
         <v>44</v>
       </c>
       <c r="F644" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G644" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J644">
         <v>10</v>
@@ -48509,10 +48506,10 @@
         <v>45</v>
       </c>
       <c r="F645" t="s">
+        <v>55</v>
+      </c>
+      <c r="G645" t="s">
         <v>56</v>
-      </c>
-      <c r="G645" t="s">
-        <v>57</v>
       </c>
       <c r="J645">
         <v>10</v>
@@ -48580,10 +48577,10 @@
         <v>45</v>
       </c>
       <c r="F646" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G646" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J646">
         <v>10</v>
@@ -48651,10 +48648,10 @@
         <v>46</v>
       </c>
       <c r="F647" t="s">
+        <v>55</v>
+      </c>
+      <c r="G647" t="s">
         <v>56</v>
-      </c>
-      <c r="G647" t="s">
-        <v>57</v>
       </c>
       <c r="J647">
         <v>10</v>
@@ -48722,10 +48719,10 @@
         <v>46</v>
       </c>
       <c r="F648" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G648" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J648">
         <v>10</v>
@@ -48793,10 +48790,10 @@
         <v>47</v>
       </c>
       <c r="F649" t="s">
+        <v>55</v>
+      </c>
+      <c r="G649" t="s">
         <v>56</v>
-      </c>
-      <c r="G649" t="s">
-        <v>57</v>
       </c>
       <c r="J649">
         <v>10</v>
@@ -48864,10 +48861,10 @@
         <v>47</v>
       </c>
       <c r="F650" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G650" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J650">
         <v>10</v>
@@ -48935,10 +48932,10 @@
         <v>48</v>
       </c>
       <c r="F651" t="s">
+        <v>55</v>
+      </c>
+      <c r="G651" t="s">
         <v>56</v>
-      </c>
-      <c r="G651" t="s">
-        <v>57</v>
       </c>
       <c r="J651">
         <v>10</v>
@@ -49006,10 +49003,10 @@
         <v>48</v>
       </c>
       <c r="F652" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G652" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J652">
         <v>10</v>
@@ -49077,10 +49074,10 @@
         <v>49</v>
       </c>
       <c r="F653" t="s">
+        <v>55</v>
+      </c>
+      <c r="G653" t="s">
         <v>56</v>
-      </c>
-      <c r="G653" t="s">
-        <v>57</v>
       </c>
       <c r="J653">
         <v>10</v>
@@ -49148,10 +49145,10 @@
         <v>49</v>
       </c>
       <c r="F654" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G654" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J654">
         <v>10</v>
